--- a/Data/05_Mobilitet og infrastruktur/SSB11403_godstransport_etter_transporttype.xlsx
+++ b/Data/05_Mobilitet og infrastruktur/SSB11403_godstransport_etter_transporttype.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeidsområde\github\VT_Pluss\02_Redigerte data\05_Mobilitet og infrastruktur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/ellen_just_hansen_vtfk_no/Documents/Dokumenter/GitHub/Telemark/Data/05_Mobilitet og infrastruktur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D66396-1696-460D-80B2-5B141A64B6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{98D66396-1696-460D-80B2-5B141A64B6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{094FA2B4-B834-4DA4-B7E5-69C2BDCAB03F}"/>
   <bookViews>
-    <workbookView xWindow="14970" yWindow="0" windowWidth="27645" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Godsmengde" sheetId="2" r:id="rId1"/>
@@ -291,14 +291,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,1255 +607,1257 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="25" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="25" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>421</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>310</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>279</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>25</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>46831</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>20648</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>1571</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>16</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>17176</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>1885</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>461</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>344</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>6</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
         <v>279</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>59</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>64109</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>34943</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="3">
         <v>1601</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="3">
         <v>16</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="3">
         <v>17334</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="3">
         <v>15992</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>402</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>302</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>269</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>26</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>44913</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>20999</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>1614</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>16</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>16965</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>2404</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>448</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>338</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>7</v>
       </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>270</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>61</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="3">
         <v>64217</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>35119</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="3">
         <v>1676</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="3">
         <v>16</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="3">
         <v>17167</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="3">
         <v>16260</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>407</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>300</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>264</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>28</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>46444</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>22304</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>1718</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>16</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>17816</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>2754</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>457</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>340</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>8</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <v>265</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="3">
         <v>67</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="3">
         <v>67834</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>38564</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="3">
         <v>1728</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="3">
         <v>16</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="3">
         <v>18086</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="3">
         <v>18734</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>417</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>320</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>9</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>284</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>28</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>44445</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>23460</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>1770</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>13</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>19166</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>2511</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>466</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>360</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>9</v>
       </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>285</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>66</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="3">
         <v>64738</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="3">
         <v>39914</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="3">
         <v>1770</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="3">
         <v>13</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="3">
         <v>19712</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="3">
         <v>18419</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>439</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>342</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>306</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>28</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>48877</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>24352</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>1666</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>16</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>19867</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>2803</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>489</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>384</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>8</v>
       </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>308</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>67</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="3">
         <v>69999</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="3">
         <v>41662</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="3">
         <v>1696</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="3">
         <v>16</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="3">
         <v>20297</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="3">
         <v>19653</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>419</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>319</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>282</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>27</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>49460</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>24058</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>1841</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>16</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>19310</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>2892</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>475</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>366</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>10</v>
       </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>283</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="3">
         <v>73</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="3">
         <v>72835</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="3">
         <v>43594</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="3">
         <v>1869</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="3">
         <v>16</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="3">
         <v>19730</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="3">
         <v>21979</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>419</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>317</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>280</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>28</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>49924</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>24035</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>1955</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>15</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>19255</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>2809</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>469</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>359</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>10</v>
       </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <v>282</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="3">
         <v>68</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="3">
         <v>69240</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="3">
         <v>38715</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="3">
         <v>1984</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="3">
         <v>15</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="3">
         <v>19676</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="3">
         <v>17040</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>414</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>305</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>267</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>28</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>52139</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>24341</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>2093</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>16</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>19471</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>2762</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>467</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>348</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>10</v>
       </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>268</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="3">
         <v>70</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="3">
         <v>73701</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="3">
         <v>40753</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="3">
         <v>2093</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="3">
         <v>16</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="3">
         <v>20075</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="3">
         <v>18569</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>405</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>300</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>11</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>260</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>29</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>50583</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>24208</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>2031</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>11</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>19357</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>2808</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>454</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>340</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>11</v>
       </c>
-      <c r="Q13" s="5">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
         <v>262</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="3">
         <v>67</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="3">
         <v>70889</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="3">
         <v>39383</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="3">
         <v>2032</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="3">
         <v>11</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="3">
         <v>19982</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="3">
         <v>17358</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>398</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>294</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>250</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>33</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>52585</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>24685</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>2106</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>10</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>19881</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>2687</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>443</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>333</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="3">
         <v>12</v>
       </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>251</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="3">
         <v>70</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="3">
         <v>71705</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="3">
         <v>40392</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="3">
         <v>2106</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="3">
         <v>10</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="3">
         <v>20526</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="3">
         <v>17750</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>408</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>289</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>250</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>27</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>55470</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>24460</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <v>2181</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>10</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>19719</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>2550</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>452</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>327</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>12</v>
       </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>251</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="3">
         <v>64</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="3">
         <v>72840</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <v>38525</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="3">
         <v>2181</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="3">
         <v>10</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="3">
         <v>20229</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="3">
         <v>16105</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>49</v>
       </c>
